--- a/data/trans_dic/IMC_inf_MED_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_MED_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>41,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>56,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>51,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>42,01%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 80,99</t>
+          <t>37,92; 55,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,15; 79,9</t>
+          <t>34,17; 51,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,14; 88,35</t>
+          <t>22,7; 43,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,18; 69,1</t>
+          <t>47,75; 64,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 60,95</t>
+          <t>42,47; 59,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,98</t>
+          <t>37,63; 60,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,06; 71,65</t>
+          <t>45,55; 57,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 63,29</t>
+          <t>40,71; 53,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 65,17</t>
+          <t>32,92; 50,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>41,02%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,34; 64,22</t>
+          <t>35,45; 48,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,02; 59,95</t>
+          <t>21,74; 32,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,92; 61,24</t>
+          <t>19,95; 37,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 57,6</t>
+          <t>51,4; 64,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 53,12</t>
+          <t>39,99; 52,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,5; 44,37</t>
+          <t>39,78; 59,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,89; 57,74</t>
+          <t>45,58; 54,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,23; 53,55</t>
+          <t>32,33; 41,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 51,26</t>
+          <t>34,57; 48,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>34,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,69; 64,74</t>
+          <t>37,83; 52,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,06; 52,92</t>
+          <t>27,64; 41,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,03; 56,95</t>
+          <t>8,39; 40,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,13; 48,66</t>
+          <t>41,19; 56,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,88; 33,35</t>
+          <t>27,96; 43,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,13; 38,75</t>
+          <t>23,39; 43,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,99; 54,7</t>
+          <t>41,37; 51,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 41,25</t>
+          <t>29,5; 39,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,83; 47,44</t>
+          <t>14,49; 37,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,41%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>30,27%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,31; 56,79</t>
+          <t>40,32; 54,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 42,84</t>
+          <t>32,47; 46,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 44,03</t>
+          <t>20,77; 39,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,77; 52,05</t>
+          <t>44,08; 57,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 41,07</t>
+          <t>41,74; 55,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,54; 41,47</t>
+          <t>22,49; 42,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,69; 52,72</t>
+          <t>44,09; 54,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,02; 39,99</t>
+          <t>39,35; 49,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,8; 40,17</t>
+          <t>23,53; 37,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>53,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,27; 57,88</t>
+          <t>41,41; 48,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,62; 55,82</t>
+          <t>31,35; 38,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 42,01</t>
+          <t>18,15; 34,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,53; 54,59</t>
+          <t>50,18; 57,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,81; 45,93</t>
+          <t>41,91; 48,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,44; 39,38</t>
+          <t>35,95; 46,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,95; 53,96</t>
+          <t>47,0; 51,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,02; 48,48</t>
+          <t>37,67; 42,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,98; 37,27</t>
+          <t>29,29; 39,01</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>53,69%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>45,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>40,97%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>45,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>34,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,27%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>35,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>50,05; 57,02</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>41,64; 48,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>36,25; 46,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>41,39; 48,83</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>30,57; 37,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>24,06; 34,18</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>46,79; 52,15</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>37,87; 42,65</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>31,63; 39,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
